--- a/ADV_Udemy_sales_price_performer/Data/Config.xlsx
+++ b/ADV_Udemy_sales_price_performer/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\UiPath\ADV_Udemy_sales_price\ADV_Udemy_sales_price_performer\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F75146-8C8B-4FFA-B689-0F9E7F682560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A824669-C3A0-46EA-8106-C9EC4F9FA2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -238,6 +238,15 @@
   </si>
   <si>
     <t>The course price is inside the specified range.</t>
+  </si>
+  <si>
+    <t>LogMessage_NoCouses</t>
+  </si>
+  <si>
+    <t>There's no courses in the specified range.</t>
+  </si>
+  <si>
+    <t>Robot_Email</t>
   </si>
 </sst>
 </file>
@@ -338,7 +347,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -357,6 +366,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1760,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1811,7 +1823,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>25</v>
@@ -1822,7 +1834,7 @@
         <v>33</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>41</v>
@@ -2041,29 +2053,43 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A32" t="s">
+      <c r="A32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A35" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -3007,7 +3033,8 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B32" r:id="rId1" xr:uid="{4301B426-3C77-4855-B91A-6DFC1F8AE3C4}"/>
+    <hyperlink ref="B34" r:id="rId1" xr:uid="{4301B426-3C77-4855-B91A-6DFC1F8AE3C4}"/>
+    <hyperlink ref="B35" r:id="rId2" xr:uid="{010523A5-A4EF-4976-A40E-CAA60D1808E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
